--- a/tableaux/tableaux.xlsx
+++ b/tableaux/tableaux.xlsx
@@ -10,8 +10,9 @@
     <sheet name="Ks" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Ks stats" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="paramètres courbe rétention" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="droite régression" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="teneur eau limite" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="capacité au champ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="droite régression" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="teneur eau limite" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ks (cm/s)</t>
+          <t>Ks (mm/s)</t>
         </is>
       </c>
     </row>
@@ -449,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01114084601643267</v>
+        <v>0.1114084601643267</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01591549430918953</v>
+        <v>0.1591549430918953</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01156525919801106</v>
+        <v>0.1156525919801106</v>
       </c>
     </row>
     <row r="5">
@@ -473,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01326291192432461</v>
+        <v>0.1326291192432461</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01336901521971921</v>
+        <v>0.1336901521971921</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01538497783221655</v>
+        <v>0.1538497783221655</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01591549430918953</v>
+        <v>0.1591549430918953</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01931079976181663</v>
+        <v>0.1931079976181663</v>
       </c>
     </row>
     <row r="10">
@@ -513,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01973521294339502</v>
+        <v>0.1973521294339503</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01591549430918953</v>
+        <v>0.1591549430918953</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01952300635260583</v>
+        <v>0.1952300635260583</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01676432067234631</v>
+        <v>0.1676432067234631</v>
       </c>
     </row>
     <row r="14">
@@ -545,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0100798130624867</v>
+        <v>0.100798130624867</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01198967237958945</v>
+        <v>0.1198967237958945</v>
       </c>
     </row>
     <row r="16">
@@ -561,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01591549430918953</v>
+        <v>0.1591549430918953</v>
       </c>
     </row>
     <row r="17">
@@ -569,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01973521294339502</v>
+        <v>0.1973521294339503</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01676432067234631</v>
+        <v>0.1676432067234631</v>
       </c>
     </row>
     <row r="19">
@@ -585,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01294460203814082</v>
+        <v>0.1294460203814082</v>
       </c>
     </row>
     <row r="20">
@@ -593,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01655211408155711</v>
+        <v>0.1655211408155711</v>
       </c>
     </row>
     <row r="21">
@@ -601,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02015962612497341</v>
+        <v>0.2015962612497341</v>
       </c>
     </row>
     <row r="22">
@@ -609,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01517277124142736</v>
+        <v>0.1517277124142736</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.013687325105903</v>
+        <v>0.13687325105903</v>
       </c>
     </row>
     <row r="24">
@@ -625,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01527887453682195</v>
+        <v>0.1527887453682195</v>
       </c>
     </row>
     <row r="25">
@@ -633,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01888638658023825</v>
+        <v>0.1888638658023825</v>
       </c>
     </row>
     <row r="26">
@@ -641,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01517277124142736</v>
+        <v>0.1517277124142736</v>
       </c>
     </row>
     <row r="27">
@@ -649,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0170826305585301</v>
+        <v>0.170826305585301</v>
       </c>
     </row>
     <row r="28">
@@ -657,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01623380419537332</v>
+        <v>0.1623380419537332</v>
       </c>
     </row>
     <row r="29">
@@ -665,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01549108112761114</v>
+        <v>0.1549108112761114</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +691,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ks (cm/s)</t>
+          <t>Ks (mm/s)</t>
         </is>
       </c>
     </row>
@@ -711,7 +712,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01567676189455169</v>
+        <v>0.1567676189455169</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +722,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00274027913518449</v>
+        <v>0.02740279135184491</v>
       </c>
     </row>
     <row r="5">
@@ -731,7 +732,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0100798130624867</v>
+        <v>0.100798130624867</v>
       </c>
     </row>
     <row r="6">
@@ -741,7 +742,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01360774763435705</v>
+        <v>0.1360774763435705</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +752,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01591549430918953</v>
+        <v>0.1591549430918953</v>
       </c>
     </row>
     <row r="8">
@@ -761,7 +762,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01684389814389226</v>
+        <v>0.1684389814389226</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +772,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02015962612497341</v>
+        <v>0.2015962612497341</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,11 +820,6 @@
           <t>n</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>theta_c</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -844,9 +840,6 @@
       <c r="F2" t="n">
         <v>1.172856573715779</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.1906984789723609</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -867,9 +860,6 @@
       <c r="F3" t="n">
         <v>1.22446489843051</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.1826302413491144</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -890,9 +880,6 @@
       <c r="F4" t="n">
         <v>1.346680425434529</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.1093591510755111</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -913,9 +900,6 @@
       <c r="F5" t="n">
         <v>1.353843926650236</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.2900633722256604</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -936,9 +920,6 @@
       <c r="F6" t="n">
         <v>1.126757250332911</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.2507354122631916</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -959,9 +940,6 @@
       <c r="F7" t="n">
         <v>1.57860609453928</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.1002558523052101</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -982,9 +960,6 @@
       <c r="F8" t="n">
         <v>1.697387990743858</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.09089001041510633</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1005,9 +980,6 @@
       <c r="F9" t="n">
         <v>1.953950058839419</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.126795266221946</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1028,9 +1000,6 @@
       <c r="F10" t="n">
         <v>1.958317060137372</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.1302217372435531</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1051,9 +1020,6 @@
       <c r="F11" t="n">
         <v>1.950761821620367</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.1393822461088076</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1074,9 +1040,6 @@
       <c r="F12" t="n">
         <v>1.172856573715779</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.1906984789723609</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1097,9 +1060,6 @@
       <c r="F13" t="n">
         <v>1.22446489843051</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.1826302413491144</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1120,9 +1080,6 @@
       <c r="F14" t="n">
         <v>1.346680425434529</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.1093591510755111</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1143,9 +1100,6 @@
       <c r="F15" t="n">
         <v>1.353843926650236</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.2900633722256604</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1166,9 +1120,6 @@
       <c r="F16" t="n">
         <v>1.126757250332911</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.2507354122631916</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1189,9 +1140,6 @@
       <c r="F17" t="n">
         <v>1.57860609453928</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.1002558523052101</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1212,9 +1160,6 @@
       <c r="F18" t="n">
         <v>1.697387990743858</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.09089001041510633</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1235,9 +1180,6 @@
       <c r="F19" t="n">
         <v>1.953950058839419</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.126795266221946</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1258,9 +1200,6 @@
       <c r="F20" t="n">
         <v>1.958317060137372</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.1302217372435531</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1281,9 +1220,6 @@
       <c r="F21" t="n">
         <v>1.950761821620367</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.1393822461088076</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1304,9 +1240,6 @@
       <c r="F22" t="n">
         <v>1.364743629718674</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.3099863441054835</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1327,9 +1260,6 @@
       <c r="F23" t="n">
         <v>1.214862958882664</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.2713244793684545</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1350,9 +1280,6 @@
       <c r="F24" t="n">
         <v>1.346680425434529</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.1093591510755111</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1373,9 +1300,6 @@
       <c r="F25" t="n">
         <v>1.353843926650236</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.2900633722256604</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1396,9 +1320,6 @@
       <c r="F26" t="n">
         <v>1.126757250332911</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.2507354122631916</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1419,9 +1340,6 @@
       <c r="F27" t="n">
         <v>1.57860609453928</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.1002558523052101</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1442,9 +1360,6 @@
       <c r="F28" t="n">
         <v>1.697387990743858</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.09089001041510633</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1464,9 +1379,6 @@
       </c>
       <c r="F29" t="n">
         <v>1.57860609453928</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.1002558523052101</v>
       </c>
     </row>
   </sheetData>
@@ -1475,6 +1387,256 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>theta_c</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1906984789723609</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1826302413491144</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1093591510755111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2900633722256604</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2507354122631916</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1002558523052101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.09089001041510633</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.126795266221946</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1302217372435531</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1393822461088076</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1906984789723609</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1826302413491144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1093591510755111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2900633722256604</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2507354122631916</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1002558523052101</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.09089001041510633</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.126795266221946</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1302217372435531</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1393822461088076</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3099863441054835</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2713244793684545</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1093591510755111</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2900633722256604</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2507354122631916</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1002558523052101</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.09089001041510633</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1002558523052101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1902,7 +2064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
